--- a/data/segmentacion_movilidad.xlsx
+++ b/data/segmentacion_movilidad.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10315"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebazuga\proyectos\app-analisis-siniestralidad\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebatoec/projects/app-analisis-siniestralidad/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E948AB6B-FFA8-4A99-A7D9-4B262492A214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA15AD6-1C27-E545-99DE-513F8DD26DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29140" windowHeight="16160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aperturas_Siniestros" sheetId="1" r:id="rId1"/>
     <sheet name="Aperturas_Primas" sheetId="2" r:id="rId2"/>
     <sheet name="Aperturas_Expuestos" sheetId="3" r:id="rId3"/>
+    <sheet name="Cuadre_Siniestros" sheetId="4" r:id="rId4"/>
+    <sheet name="Cuadre_Primas" sheetId="5" r:id="rId5"/>
+    <sheet name="Meses_cuadre_siniestros" sheetId="6" r:id="rId6"/>
+    <sheet name="Meses_cuadre_primas" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="21">
   <si>
     <t>codigo_op</t>
   </si>
@@ -99,6 +103,9 @@
   <si>
     <t>Trimestral</t>
   </si>
+  <si>
+    <t>fecha_registro</t>
+  </si>
 </sst>
 </file>
 
@@ -108,7 +115,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -116,7 +123,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -124,13 +131,13 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -144,13 +151,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -171,10 +178,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -193,93 +200,58 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema_Office_Sura">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="SURA">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="656867"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="768692"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="C7C9C7"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="0033A0"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E3E829"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="00AEC7"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="707372"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="ED8B00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="78BE20"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="4EC3FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="F9423A"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Clásico de Office 2">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Arial"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="굴림"/>
+        <a:font script="Hans" typeface="黑体"/>
+        <a:font script="Hant" typeface="微軟正黑體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -302,7 +274,40 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="굴림"/>
+        <a:font script="Hans" typeface="黑体"/>
+        <a:font script="Hant" typeface="微軟正黑體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -314,140 +319,240 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="0033A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </a:spPr>
+      <a:bodyPr anchor="ctr"/>
+      <a:lstStyle>
+        <a:defPPr algn="ctr" defTabSz="608853">
+          <a:defRPr/>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3190CF"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+      </a:spPr>
+      <a:bodyPr wrap="none" rtlCol="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr algn="ctr">
+          <a:defRPr dirty="0" err="1" smtClean="0">
+            <a:solidFill>
+              <a:srgbClr val="686968"/>
+            </a:solidFill>
+          </a:defRPr>
+        </a:defPPr>
+      </a:lstStyle>
+    </a:txDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Tema_Office_Sura" id="{E32F5AB9-4A42-4802-9E29-E76B3B05C03A}" vid="{9B42DE5C-F1BB-4564-9601-BD5D32A357D4}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -455,52 +560,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Hoja1"/>
+  <sheetPr codeName="Hoja1">
+    <tabColor theme="4" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="str">
         <f>+B2&amp;"_"&amp;C2&amp;"_"&amp;D2&amp;"_"&amp;E2&amp;""</f>
         <v>01_040_MOTOS RESTO_MOTOS RESTO</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
@@ -513,15 +620,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A9" si="0">+B3&amp;"_"&amp;C3&amp;"_"&amp;D3&amp;"_"&amp;E3&amp;""</f>
         <v>01_040_TOTALES_TOTALES</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
@@ -534,15 +641,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>01_040_RC_RC PJ</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
@@ -555,15 +662,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>01_040_PARCIALES_PARCIALES_RESTO</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
@@ -576,15 +683,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>01_040_MOTOS SUFI_MOTOS SUFI</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
@@ -597,15 +704,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>01_040_TOTALES_SALV</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
@@ -618,15 +725,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>01_040_RC_RC NO PJ</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
@@ -639,15 +746,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>01_040_PARCIALES_SUBR</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
@@ -673,36 +780,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB0BAE8-CCC4-4AC2-A17F-D9196E3997C3}">
-  <sheetPr codeName="Hoja2"/>
+  <sheetPr codeName="Hoja2">
+    <tabColor theme="4" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="A6:C6"/>
+      <selection activeCell="C1" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
@@ -711,11 +820,11 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
@@ -724,11 +833,11 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
@@ -737,11 +846,11 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
@@ -750,11 +859,11 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
@@ -763,43 +872,43 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G17" s="1"/>
     </row>
   </sheetData>
@@ -810,88 +919,4228 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377CF2FF-3158-4662-8380-19F5D239257B}">
-  <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:F8"/>
+  <sheetPr codeName="Hoja3">
+    <tabColor theme="4" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F8" s="6"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FECCC126-7E15-9F46-9A4E-E416A292DDA1}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="str">
+        <f>+B2&amp;"_"&amp;C2&amp;"_"&amp;D2&amp;"_"&amp;E2</f>
+        <v>01_040_PARCIALES_PARCIALES_RESTO</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134608EB-800B-EA4F-A597-09244ADB9944}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9450B0E9-F0B5-B148-967A-21BEF4ADD69C}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:A401"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6">
+        <v>40179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6">
+        <v>40210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
+        <v>40238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
+        <v>40269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
+        <v>40299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
+        <v>40330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
+        <v>40360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
+        <v>40391</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
+        <v>40422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6">
+        <v>40452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6">
+        <v>40483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6">
+        <v>40513</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6">
+        <v>40544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6">
+        <v>40575</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6">
+        <v>40603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6">
+        <v>40634</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6">
+        <v>40664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6">
+        <v>40695</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6">
+        <v>40725</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6">
+        <v>40756</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="6">
+        <v>40787</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6">
+        <v>40817</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6">
+        <v>40848</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6">
+        <v>40878</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="6">
+        <v>40909</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6">
+        <v>40940</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6">
+        <v>40969</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="6">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6">
+        <v>41030</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="6">
+        <v>41061</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="6">
+        <v>41091</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6">
+        <v>41122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="6">
+        <v>41153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="6">
+        <v>41183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="6">
+        <v>41214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="6">
+        <v>41244</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="6">
+        <v>41275</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="6">
+        <v>41306</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="6">
+        <v>41334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="6">
+        <v>41365</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="6">
+        <v>41395</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="6">
+        <v>41426</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" s="6">
+        <v>41456</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" s="6">
+        <v>41487</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" s="6">
+        <v>41518</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" s="6">
+        <v>41548</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" s="6">
+        <v>41579</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="6">
+        <v>41609</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="6">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="6">
+        <v>41671</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="6">
+        <v>41699</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" s="6">
+        <v>41730</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" s="6">
+        <v>41760</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" s="6">
+        <v>41791</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56" s="6">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" s="6">
+        <v>41852</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" s="6">
+        <v>41883</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" s="6">
+        <v>41913</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" s="6">
+        <v>41944</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" s="6">
+        <v>41974</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" s="6">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" s="6">
+        <v>42036</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64" s="6">
+        <v>42064</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" s="6">
+        <v>42095</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" s="6">
+        <v>42125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" s="6">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" s="6">
+        <v>42186</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" s="6">
+        <v>42217</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" s="6">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" s="6">
+        <v>42278</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" s="6">
+        <v>42309</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" s="6">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" s="6">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" s="6">
+        <v>42401</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76" s="6">
+        <v>42430</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77" s="6">
+        <v>42461</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" s="6">
+        <v>42491</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" s="6">
+        <v>42522</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80" s="6">
+        <v>42552</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81" s="6">
+        <v>42583</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82" s="6">
+        <v>42614</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83" s="6">
+        <v>42644</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A84" s="6">
+        <v>42675</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A85" s="6">
+        <v>42705</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A86" s="6">
+        <v>42736</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A87" s="6">
+        <v>42767</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A88" s="6">
+        <v>42795</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A89" s="6">
+        <v>42826</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A90" s="6">
+        <v>42856</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A91" s="6">
+        <v>42887</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A92" s="6">
+        <v>42917</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A93" s="6">
+        <v>42948</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A94" s="6">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A95" s="6">
+        <v>43009</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A96" s="6">
+        <v>43040</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A97" s="6">
+        <v>43070</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A98" s="6">
+        <v>43101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A99" s="6">
+        <v>43132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A100" s="6">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A101" s="6">
+        <v>43191</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A102" s="6">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A103" s="6">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A104" s="6">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A105" s="6">
+        <v>43313</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A106" s="6">
+        <v>43344</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A107" s="6">
+        <v>43374</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A108" s="6">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A109" s="6">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A110" s="6">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A111" s="6">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A112" s="6">
+        <v>43525</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A113" s="6">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A114" s="6">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A115" s="6">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A116" s="6">
+        <v>43647</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A117" s="6">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A118" s="6">
+        <v>43709</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A119" s="6">
+        <v>43739</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A120" s="6">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A121" s="6">
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A122" s="6">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A123" s="6">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A124" s="6">
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A125" s="6">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A126" s="6">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A127" s="6">
+        <v>43983</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A128" s="6">
+        <v>44013</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A129" s="6">
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A130" s="6">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A131" s="6">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A132" s="6">
+        <v>44136</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A133" s="6">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A134" s="6">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A135" s="6">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A136" s="6">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A137" s="6">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A138" s="6">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A139" s="6">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A140" s="6">
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A141" s="6">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A142" s="6">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A143" s="6">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A144" s="6">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A145" s="6">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A146" s="6">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A147" s="6">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A148" s="6">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A149" s="6">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A150" s="6">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A151" s="6">
+        <v>44713</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A152" s="6">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A153" s="6">
+        <v>44774</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A154" s="6">
+        <v>44805</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A155" s="6">
+        <v>44835</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A156" s="6">
+        <v>44866</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A157" s="6">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A158" s="6">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A159" s="6">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A160" s="6">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A161" s="6">
+        <v>45017</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A162" s="6">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A163" s="6">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A164" s="6">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A165" s="6">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A166" s="6">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A167" s="6">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A168" s="6">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A169" s="6">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A170" s="6">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A171" s="6">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A172" s="6">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A173" s="6">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A174" s="6">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A175" s="6">
+        <v>45444</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A176" s="6">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A177" s="6">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A178" s="6">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A179" s="6">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A180" s="6">
+        <v>45597</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A181" s="6">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A182" s="6">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A183" s="6">
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A184" s="6">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A185" s="6">
+        <v>45748</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A186" s="6">
+        <v>45778</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A187" s="6">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A188" s="6">
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A189" s="6">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A190" s="6">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A191" s="6">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A192" s="6">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A193" s="6">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A194" s="6">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A195" s="6">
+        <v>46054</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A196" s="6">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A197" s="6">
+        <v>46113</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A198" s="6">
+        <v>46143</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A199" s="6">
+        <v>46174</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A200" s="6">
+        <v>46204</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A201" s="6">
+        <v>46235</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A202" s="6">
+        <v>46266</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A203" s="6">
+        <v>46296</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A204" s="6">
+        <v>46327</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A205" s="6">
+        <v>46357</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A206" s="6">
+        <v>46388</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A207" s="6">
+        <v>46419</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A208" s="6">
+        <v>46447</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A209" s="6">
+        <v>46478</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A210" s="6">
+        <v>46508</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A211" s="6">
+        <v>46539</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A212" s="6">
+        <v>46569</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A213" s="6">
+        <v>46600</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A214" s="6">
+        <v>46631</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A215" s="6">
+        <v>46661</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A216" s="6">
+        <v>46692</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A217" s="6">
+        <v>46722</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A218" s="6">
+        <v>46753</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A219" s="6">
+        <v>46784</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A220" s="6">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A221" s="6">
+        <v>46844</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A222" s="6">
+        <v>46874</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A223" s="6">
+        <v>46905</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A224" s="6">
+        <v>46935</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A225" s="6">
+        <v>46966</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A226" s="6">
+        <v>46997</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A227" s="6">
+        <v>47027</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A228" s="6">
+        <v>47058</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A229" s="6">
+        <v>47088</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A230" s="6">
+        <v>47119</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A231" s="6">
+        <v>47150</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A232" s="6">
+        <v>47178</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A233" s="6">
+        <v>47209</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A234" s="6">
+        <v>47239</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A235" s="6">
+        <v>47270</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A236" s="6">
+        <v>47300</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A237" s="6">
+        <v>47331</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A238" s="6">
+        <v>47362</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A239" s="6">
+        <v>47392</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A240" s="6">
+        <v>47423</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A241" s="6">
+        <v>47453</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A242" s="6">
+        <v>47484</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A243" s="6">
+        <v>47515</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A244" s="6">
+        <v>47543</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A245" s="6">
+        <v>47574</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A246" s="6">
+        <v>47604</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A247" s="6">
+        <v>47635</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A248" s="6">
+        <v>47665</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A249" s="6">
+        <v>47696</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A250" s="6">
+        <v>47727</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A251" s="6">
+        <v>47757</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A252" s="6">
+        <v>47788</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A253" s="6">
+        <v>47818</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A254" s="6">
+        <v>47849</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A255" s="6">
+        <v>47880</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A256" s="6">
+        <v>47908</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A257" s="6">
+        <v>47939</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A258" s="6">
+        <v>47969</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A259" s="6">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A260" s="6">
+        <v>48030</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A261" s="6">
+        <v>48061</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A262" s="6">
+        <v>48092</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A263" s="6">
+        <v>48122</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A264" s="6">
+        <v>48153</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A265" s="6">
+        <v>48183</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A266" s="6">
+        <v>48214</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A267" s="6">
+        <v>48245</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A268" s="6">
+        <v>48274</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A269" s="6">
+        <v>48305</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A270" s="6">
+        <v>48335</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A271" s="6">
+        <v>48366</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A272" s="6">
+        <v>48396</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A273" s="6">
+        <v>48427</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A274" s="6">
+        <v>48458</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A275" s="6">
+        <v>48488</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A276" s="6">
+        <v>48519</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A277" s="6">
+        <v>48549</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A278" s="6">
+        <v>48580</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A279" s="6">
+        <v>48611</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A280" s="6">
+        <v>48639</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A281" s="6">
+        <v>48670</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A282" s="6">
+        <v>48700</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A283" s="6">
+        <v>48731</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A284" s="6">
+        <v>48761</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A285" s="6">
+        <v>48792</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A286" s="6">
+        <v>48823</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A287" s="6">
+        <v>48853</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A288" s="6">
+        <v>48884</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A289" s="6">
+        <v>48914</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A290" s="6">
+        <v>48945</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A291" s="6">
+        <v>48976</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A292" s="6">
+        <v>49004</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A293" s="6">
+        <v>49035</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A294" s="6">
+        <v>49065</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A295" s="6">
+        <v>49096</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A296" s="6">
+        <v>49126</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A297" s="6">
+        <v>49157</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A298" s="6">
+        <v>49188</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A299" s="6">
+        <v>49218</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A300" s="6">
+        <v>49249</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A301" s="6">
+        <v>49279</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A302" s="6">
+        <v>49310</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A303" s="6">
+        <v>49341</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A304" s="6">
+        <v>49369</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A305" s="6">
+        <v>49400</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A306" s="6">
+        <v>49430</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A307" s="6">
+        <v>49461</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A308" s="6">
+        <v>49491</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A309" s="6">
+        <v>49522</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A310" s="6">
+        <v>49553</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A311" s="6">
+        <v>49583</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A312" s="6">
+        <v>49614</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A313" s="6">
+        <v>49644</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A314" s="6">
+        <v>49675</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A315" s="6">
+        <v>49706</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A316" s="6">
+        <v>49735</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A317" s="6">
+        <v>49766</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A318" s="6">
+        <v>49796</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A319" s="6">
+        <v>49827</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A320" s="6">
+        <v>49857</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A321" s="6">
+        <v>49888</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A322" s="6">
+        <v>49919</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A323" s="6">
+        <v>49949</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A324" s="6">
+        <v>49980</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A325" s="6">
+        <v>50010</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A326" s="6">
+        <v>50041</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A327" s="6">
+        <v>50072</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A328" s="6">
+        <v>50100</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A329" s="6">
+        <v>50131</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A330" s="6">
+        <v>50161</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A331" s="6">
+        <v>50192</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A332" s="6">
+        <v>50222</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A333" s="6">
+        <v>50253</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A334" s="6">
+        <v>50284</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A335" s="6">
+        <v>50314</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A336" s="6">
+        <v>50345</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A337" s="6">
+        <v>50375</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A338" s="6">
+        <v>50406</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A339" s="6">
+        <v>50437</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A340" s="6">
+        <v>50465</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A341" s="6">
+        <v>50496</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A342" s="6">
+        <v>50526</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A343" s="6">
+        <v>50557</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A344" s="6">
+        <v>50587</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A345" s="6">
+        <v>50618</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A346" s="6">
+        <v>50649</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A347" s="6">
+        <v>50679</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A348" s="6">
+        <v>50710</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A349" s="6">
+        <v>50740</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A350" s="6">
+        <v>50771</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A351" s="6">
+        <v>50802</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A352" s="6">
+        <v>50830</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A353" s="6">
+        <v>50861</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A354" s="6">
+        <v>50891</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A355" s="6">
+        <v>50922</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A356" s="6">
+        <v>50952</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A357" s="6">
+        <v>50983</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A358" s="6">
+        <v>51014</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A359" s="6">
+        <v>51044</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A360" s="6">
+        <v>51075</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A361" s="6">
+        <v>51105</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A362" s="6">
+        <v>51136</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A363" s="6">
+        <v>51167</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A364" s="6">
+        <v>51196</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A365" s="6">
+        <v>51227</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A366" s="6">
+        <v>51257</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A367" s="6">
+        <v>51288</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A368" s="6">
+        <v>51318</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A369" s="6">
+        <v>51349</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A370" s="6">
+        <v>51380</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A371" s="6">
+        <v>51410</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A372" s="6">
+        <v>51441</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A373" s="6">
+        <v>51471</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A374" s="6">
+        <v>51502</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A375" s="6">
+        <v>51533</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A376" s="6">
+        <v>51561</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A377" s="6">
+        <v>51592</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A378" s="6">
+        <v>51622</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A379" s="6">
+        <v>51653</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A380" s="6">
+        <v>51683</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A381" s="6">
+        <v>51714</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A382" s="6">
+        <v>51745</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A383" s="6">
+        <v>51775</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A384" s="6">
+        <v>51806</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A385" s="6">
+        <v>51836</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A386" s="6">
+        <v>51867</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A387" s="6">
+        <v>51898</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A388" s="6">
+        <v>51926</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A389" s="6">
+        <v>51957</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A390" s="6">
+        <v>51987</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A391" s="6">
+        <v>52018</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A392" s="6">
+        <v>52048</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A393" s="6">
+        <v>52079</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A394" s="6">
+        <v>52110</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A395" s="6">
+        <v>52140</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A396" s="6">
+        <v>52171</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A397" s="6">
+        <v>52201</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A398" s="6"/>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A399" s="6"/>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A400" s="6"/>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A401" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9DDD8F-FFD9-EE4C-97AC-22BA1A548B69}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:A401"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6">
+        <v>40179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6">
+        <v>40210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
+        <v>40238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
+        <v>40269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
+        <v>40299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
+        <v>40330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
+        <v>40360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
+        <v>40391</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
+        <v>40422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6">
+        <v>40452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6">
+        <v>40483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6">
+        <v>40513</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6">
+        <v>40544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6">
+        <v>40575</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6">
+        <v>40603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6">
+        <v>40634</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6">
+        <v>40664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6">
+        <v>40695</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6">
+        <v>40725</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6">
+        <v>40756</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="6">
+        <v>40787</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6">
+        <v>40817</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6">
+        <v>40848</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6">
+        <v>40878</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="6">
+        <v>40909</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6">
+        <v>40940</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6">
+        <v>40969</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="6">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6">
+        <v>41030</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="6">
+        <v>41061</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="6">
+        <v>41091</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6">
+        <v>41122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="6">
+        <v>41153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="6">
+        <v>41183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="6">
+        <v>41214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="6">
+        <v>41244</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="6">
+        <v>41275</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="6">
+        <v>41306</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="6">
+        <v>41334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="6">
+        <v>41365</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="6">
+        <v>41395</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="6">
+        <v>41426</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" s="6">
+        <v>41456</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" s="6">
+        <v>41487</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" s="6">
+        <v>41518</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" s="6">
+        <v>41548</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" s="6">
+        <v>41579</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="6">
+        <v>41609</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="6">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="6">
+        <v>41671</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="6">
+        <v>41699</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" s="6">
+        <v>41730</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" s="6">
+        <v>41760</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" s="6">
+        <v>41791</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56" s="6">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" s="6">
+        <v>41852</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" s="6">
+        <v>41883</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" s="6">
+        <v>41913</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" s="6">
+        <v>41944</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" s="6">
+        <v>41974</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" s="6">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" s="6">
+        <v>42036</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64" s="6">
+        <v>42064</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" s="6">
+        <v>42095</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" s="6">
+        <v>42125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" s="6">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" s="6">
+        <v>42186</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" s="6">
+        <v>42217</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" s="6">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" s="6">
+        <v>42278</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" s="6">
+        <v>42309</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" s="6">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" s="6">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" s="6">
+        <v>42401</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76" s="6">
+        <v>42430</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77" s="6">
+        <v>42461</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" s="6">
+        <v>42491</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" s="6">
+        <v>42522</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80" s="6">
+        <v>42552</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81" s="6">
+        <v>42583</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82" s="6">
+        <v>42614</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83" s="6">
+        <v>42644</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A84" s="6">
+        <v>42675</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A85" s="6">
+        <v>42705</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A86" s="6">
+        <v>42736</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A87" s="6">
+        <v>42767</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A88" s="6">
+        <v>42795</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A89" s="6">
+        <v>42826</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A90" s="6">
+        <v>42856</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A91" s="6">
+        <v>42887</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A92" s="6">
+        <v>42917</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A93" s="6">
+        <v>42948</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A94" s="6">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A95" s="6">
+        <v>43009</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A96" s="6">
+        <v>43040</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A97" s="6">
+        <v>43070</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A98" s="6">
+        <v>43101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A99" s="6">
+        <v>43132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A100" s="6">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A101" s="6">
+        <v>43191</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A102" s="6">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A103" s="6">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A104" s="6">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A105" s="6">
+        <v>43313</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A106" s="6">
+        <v>43344</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A107" s="6">
+        <v>43374</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A108" s="6">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A109" s="6">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A110" s="6">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A111" s="6">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A112" s="6">
+        <v>43525</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A113" s="6">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A114" s="6">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A115" s="6">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A116" s="6">
+        <v>43647</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A117" s="6">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A118" s="6">
+        <v>43709</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A119" s="6">
+        <v>43739</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A120" s="6">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A121" s="6">
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A122" s="6">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A123" s="6">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A124" s="6">
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A125" s="6">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A126" s="6">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A127" s="6">
+        <v>43983</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A128" s="6">
+        <v>44013</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A129" s="6">
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A130" s="6">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A131" s="6">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A132" s="6">
+        <v>44136</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A133" s="6">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A134" s="6">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A135" s="6">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A136" s="6">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A137" s="6">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A138" s="6">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A139" s="6">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A140" s="6">
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A141" s="6">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A142" s="6">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A143" s="6">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A144" s="6">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A145" s="6">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A146" s="6">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A147" s="6">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A148" s="6">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A149" s="6">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A150" s="6">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A151" s="6">
+        <v>44713</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A152" s="6">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A153" s="6">
+        <v>44774</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A154" s="6">
+        <v>44805</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A155" s="6">
+        <v>44835</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A156" s="6">
+        <v>44866</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A157" s="6">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A158" s="6">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A159" s="6">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A160" s="6">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A161" s="6">
+        <v>45017</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A162" s="6">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A163" s="6">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A164" s="6">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A165" s="6">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A166" s="6">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A167" s="6">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A168" s="6">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A169" s="6">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A170" s="6">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A171" s="6">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A172" s="6">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A173" s="6">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A174" s="6">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A175" s="6">
+        <v>45444</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A176" s="6">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A177" s="6">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A178" s="6">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A179" s="6">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A180" s="6">
+        <v>45597</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A181" s="6">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A182" s="6">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A183" s="6">
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A184" s="6">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A185" s="6">
+        <v>45748</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A186" s="6">
+        <v>45778</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A187" s="6">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A188" s="6">
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A189" s="6">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A190" s="6">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A191" s="6">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A192" s="6">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A193" s="6">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A194" s="6">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A195" s="6">
+        <v>46054</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A196" s="6">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A197" s="6">
+        <v>46113</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A198" s="6">
+        <v>46143</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A199" s="6">
+        <v>46174</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A200" s="6">
+        <v>46204</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A201" s="6">
+        <v>46235</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A202" s="6">
+        <v>46266</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A203" s="6">
+        <v>46296</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A204" s="6">
+        <v>46327</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A205" s="6">
+        <v>46357</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A206" s="6">
+        <v>46388</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A207" s="6">
+        <v>46419</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A208" s="6">
+        <v>46447</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A209" s="6">
+        <v>46478</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A210" s="6">
+        <v>46508</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A211" s="6">
+        <v>46539</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A212" s="6">
+        <v>46569</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A213" s="6">
+        <v>46600</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A214" s="6">
+        <v>46631</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A215" s="6">
+        <v>46661</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A216" s="6">
+        <v>46692</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A217" s="6">
+        <v>46722</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A218" s="6">
+        <v>46753</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A219" s="6">
+        <v>46784</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A220" s="6">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A221" s="6">
+        <v>46844</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A222" s="6">
+        <v>46874</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A223" s="6">
+        <v>46905</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A224" s="6">
+        <v>46935</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A225" s="6">
+        <v>46966</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A226" s="6">
+        <v>46997</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A227" s="6">
+        <v>47027</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A228" s="6">
+        <v>47058</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A229" s="6">
+        <v>47088</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A230" s="6">
+        <v>47119</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A231" s="6">
+        <v>47150</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A232" s="6">
+        <v>47178</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A233" s="6">
+        <v>47209</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A234" s="6">
+        <v>47239</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A235" s="6">
+        <v>47270</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A236" s="6">
+        <v>47300</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A237" s="6">
+        <v>47331</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A238" s="6">
+        <v>47362</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A239" s="6">
+        <v>47392</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A240" s="6">
+        <v>47423</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A241" s="6">
+        <v>47453</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A242" s="6">
+        <v>47484</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A243" s="6">
+        <v>47515</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A244" s="6">
+        <v>47543</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A245" s="6">
+        <v>47574</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A246" s="6">
+        <v>47604</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A247" s="6">
+        <v>47635</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A248" s="6">
+        <v>47665</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A249" s="6">
+        <v>47696</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A250" s="6">
+        <v>47727</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A251" s="6">
+        <v>47757</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A252" s="6">
+        <v>47788</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A253" s="6">
+        <v>47818</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A254" s="6">
+        <v>47849</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A255" s="6">
+        <v>47880</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A256" s="6">
+        <v>47908</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A257" s="6">
+        <v>47939</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A258" s="6">
+        <v>47969</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A259" s="6">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A260" s="6">
+        <v>48030</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A261" s="6">
+        <v>48061</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A262" s="6">
+        <v>48092</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A263" s="6">
+        <v>48122</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A264" s="6">
+        <v>48153</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A265" s="6">
+        <v>48183</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A266" s="6">
+        <v>48214</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A267" s="6">
+        <v>48245</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A268" s="6">
+        <v>48274</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A269" s="6">
+        <v>48305</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A270" s="6">
+        <v>48335</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A271" s="6">
+        <v>48366</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A272" s="6">
+        <v>48396</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A273" s="6">
+        <v>48427</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A274" s="6">
+        <v>48458</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A275" s="6">
+        <v>48488</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A276" s="6">
+        <v>48519</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A277" s="6">
+        <v>48549</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A278" s="6">
+        <v>48580</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A279" s="6">
+        <v>48611</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A280" s="6">
+        <v>48639</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A281" s="6">
+        <v>48670</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A282" s="6">
+        <v>48700</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A283" s="6">
+        <v>48731</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A284" s="6">
+        <v>48761</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A285" s="6">
+        <v>48792</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A286" s="6">
+        <v>48823</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A287" s="6">
+        <v>48853</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A288" s="6">
+        <v>48884</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A289" s="6">
+        <v>48914</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A290" s="6">
+        <v>48945</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A291" s="6">
+        <v>48976</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A292" s="6">
+        <v>49004</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A293" s="6">
+        <v>49035</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A294" s="6">
+        <v>49065</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A295" s="6">
+        <v>49096</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A296" s="6">
+        <v>49126</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A297" s="6">
+        <v>49157</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A298" s="6">
+        <v>49188</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A299" s="6">
+        <v>49218</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A300" s="6">
+        <v>49249</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A301" s="6">
+        <v>49279</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A302" s="6">
+        <v>49310</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A303" s="6">
+        <v>49341</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A304" s="6">
+        <v>49369</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A305" s="6">
+        <v>49400</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A306" s="6">
+        <v>49430</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A307" s="6">
+        <v>49461</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A308" s="6">
+        <v>49491</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A309" s="6">
+        <v>49522</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A310" s="6">
+        <v>49553</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A311" s="6">
+        <v>49583</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A312" s="6">
+        <v>49614</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A313" s="6">
+        <v>49644</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A314" s="6">
+        <v>49675</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A315" s="6">
+        <v>49706</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A316" s="6">
+        <v>49735</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A317" s="6">
+        <v>49766</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A318" s="6">
+        <v>49796</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A319" s="6">
+        <v>49827</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A320" s="6">
+        <v>49857</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A321" s="6">
+        <v>49888</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A322" s="6">
+        <v>49919</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A323" s="6">
+        <v>49949</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A324" s="6">
+        <v>49980</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A325" s="6">
+        <v>50010</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A326" s="6">
+        <v>50041</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A327" s="6">
+        <v>50072</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A328" s="6">
+        <v>50100</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A329" s="6">
+        <v>50131</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A330" s="6">
+        <v>50161</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A331" s="6">
+        <v>50192</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A332" s="6">
+        <v>50222</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A333" s="6">
+        <v>50253</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A334" s="6">
+        <v>50284</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A335" s="6">
+        <v>50314</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A336" s="6">
+        <v>50345</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A337" s="6">
+        <v>50375</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A338" s="6">
+        <v>50406</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A339" s="6">
+        <v>50437</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A340" s="6">
+        <v>50465</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A341" s="6">
+        <v>50496</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A342" s="6">
+        <v>50526</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A343" s="6">
+        <v>50557</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A344" s="6">
+        <v>50587</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A345" s="6">
+        <v>50618</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A346" s="6">
+        <v>50649</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A347" s="6">
+        <v>50679</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A348" s="6">
+        <v>50710</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A349" s="6">
+        <v>50740</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A350" s="6">
+        <v>50771</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A351" s="6">
+        <v>50802</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A352" s="6">
+        <v>50830</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A353" s="6">
+        <v>50861</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A354" s="6">
+        <v>50891</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A355" s="6">
+        <v>50922</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A356" s="6">
+        <v>50952</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A357" s="6">
+        <v>50983</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A358" s="6">
+        <v>51014</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A359" s="6">
+        <v>51044</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A360" s="6">
+        <v>51075</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A361" s="6">
+        <v>51105</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A362" s="6">
+        <v>51136</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A363" s="6">
+        <v>51167</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A364" s="6">
+        <v>51196</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A365" s="6">
+        <v>51227</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A366" s="6">
+        <v>51257</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A367" s="6">
+        <v>51288</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A368" s="6">
+        <v>51318</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A369" s="6">
+        <v>51349</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A370" s="6">
+        <v>51380</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A371" s="6">
+        <v>51410</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A372" s="6">
+        <v>51441</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A373" s="6">
+        <v>51471</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A374" s="6">
+        <v>51502</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A375" s="6">
+        <v>51533</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A376" s="6">
+        <v>51561</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A377" s="6">
+        <v>51592</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A378" s="6">
+        <v>51622</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A379" s="6">
+        <v>51653</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A380" s="6">
+        <v>51683</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A381" s="6">
+        <v>51714</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A382" s="6">
+        <v>51745</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A383" s="6">
+        <v>51775</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A384" s="6">
+        <v>51806</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A385" s="6">
+        <v>51836</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A386" s="6">
+        <v>51867</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A387" s="6">
+        <v>51898</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A388" s="6">
+        <v>51926</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A389" s="6">
+        <v>51957</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A390" s="6">
+        <v>51987</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A391" s="6">
+        <v>52018</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A392" s="6">
+        <v>52048</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A393" s="6">
+        <v>52079</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A394" s="6">
+        <v>52110</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A395" s="6">
+        <v>52140</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A396" s="6">
+        <v>52171</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A397" s="6">
+        <v>52201</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A398" s="6"/>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A399" s="6"/>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A400" s="6"/>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A401" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/segmentacion_movilidad.xlsx
+++ b/data/segmentacion_movilidad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebatoec/projects/app-analisis-siniestralidad/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA15AD6-1C27-E545-99DE-513F8DD26DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB4F2FD-55BB-4C4A-8400-B3856CA9E4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29140" windowHeight="16160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29140" windowHeight="16160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aperturas_Siniestros" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="22">
   <si>
     <t>codigo_op</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>fecha_registro</t>
+  </si>
+  <si>
+    <t>incluir</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1076,7 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
@@ -1116,10 +1119,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:A401"/>
+  <dimension ref="A1:B401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection sqref="A1:B397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1127,1998 +1130,3189 @@
     <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B1" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="6">
         <v>40179</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>40210</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>40238</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>40269</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>40299</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>40330</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>40360</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>40391</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>40422</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>40452</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>40483</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>40513</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>40544</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>40575</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>40603</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>40634</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>40664</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>40695</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>40725</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>40756</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>40787</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>40817</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>40848</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>40878</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>40909</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>40940</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>40969</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>41000</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>41030</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>41061</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>41091</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="6">
         <v>41122</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="6">
         <v>41153</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="6">
         <v>41183</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="6">
         <v>41214</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="6">
         <v>41244</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="6">
         <v>41275</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="6">
         <v>41306</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="6">
         <v>41334</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="6">
         <v>41365</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="6">
         <v>41395</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="6">
         <v>41426</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="6">
         <v>41456</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="6">
         <v>41487</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="6">
         <v>41518</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="6">
         <v>41548</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="6">
         <v>41579</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="6">
         <v>41609</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="6">
         <v>41640</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="6">
         <v>41671</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="6">
         <v>41699</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="6">
         <v>41730</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="6">
         <v>41760</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="6">
         <v>41791</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="6">
         <v>41821</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="6">
         <v>41852</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="6">
         <v>41883</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="6">
         <v>41913</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="6">
         <v>41944</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="6">
         <v>41974</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="6">
         <v>42005</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="6">
         <v>42036</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="6">
         <v>42064</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="6">
         <v>42095</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="6">
         <v>42125</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="6">
         <v>42156</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="6">
         <v>42186</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="6">
         <v>42217</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="6">
         <v>42248</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="6">
         <v>42278</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="6">
         <v>42309</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="6">
         <v>42339</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="6">
         <v>42370</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="6">
         <v>42401</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="6">
         <v>42430</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="6">
         <v>42461</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="6">
         <v>42491</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="6">
         <v>42522</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="6">
         <v>42552</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="6">
         <v>42583</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="6">
         <v>42614</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="6">
         <v>42644</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="6">
         <v>42675</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="6">
         <v>42705</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" s="6">
         <v>42736</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="6">
         <v>42767</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="6">
         <v>42795</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="6">
         <v>42826</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="6">
         <v>42856</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="6">
         <v>42887</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="6">
         <v>42917</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="6">
         <v>42948</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="6">
         <v>42979</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" s="6">
         <v>43009</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" s="6">
         <v>43040</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="6">
         <v>43070</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="6">
         <v>43101</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="6">
         <v>43132</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" s="6">
         <v>43160</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="6">
         <v>43191</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="6">
         <v>43221</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="6">
         <v>43252</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="6">
         <v>43282</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="6">
         <v>43313</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="6">
         <v>43344</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="6">
         <v>43374</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="6">
         <v>43405</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="6">
         <v>43435</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="6">
         <v>43466</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="6">
         <v>43497</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="6">
         <v>43525</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="6">
         <v>43556</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" s="6">
         <v>43586</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" s="6">
         <v>43617</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" s="6">
         <v>43647</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" s="6">
         <v>43678</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" s="6">
         <v>43709</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" s="6">
         <v>43739</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" s="6">
         <v>43770</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" s="6">
         <v>43800</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" s="6">
         <v>43831</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" s="6">
         <v>43862</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" s="6">
         <v>43891</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" s="6">
         <v>43922</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" s="6">
         <v>43952</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" s="6">
         <v>43983</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" s="6">
         <v>44013</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" s="6">
         <v>44044</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" s="6">
         <v>44075</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" s="6">
         <v>44105</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" s="6">
         <v>44136</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" s="6">
         <v>44166</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" s="6">
         <v>44197</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" s="6">
         <v>44228</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" s="6">
         <v>44256</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" s="6">
         <v>44287</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" s="6">
         <v>44317</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" s="6">
         <v>44348</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" s="6">
         <v>44378</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" s="6">
         <v>44409</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" s="6">
         <v>44440</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" s="6">
         <v>44470</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" s="6">
         <v>44501</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" s="6">
         <v>44531</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" s="6">
         <v>44562</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" s="6">
         <v>44593</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" s="6">
         <v>44621</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" s="6">
         <v>44652</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" s="6">
         <v>44682</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151" s="6">
         <v>44713</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A152" s="6">
         <v>44743</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A153" s="6">
         <v>44774</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A154" s="6">
         <v>44805</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A155" s="6">
         <v>44835</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A156" s="6">
         <v>44866</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A157" s="6">
         <v>44896</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A158" s="6">
         <v>44927</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A159" s="6">
         <v>44958</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A160" s="6">
         <v>44986</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A161" s="6">
         <v>45017</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A162" s="6">
         <v>45047</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A163" s="6">
         <v>45078</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A164" s="6">
         <v>45108</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A165" s="6">
         <v>45139</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A166" s="6">
         <v>45170</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A167" s="6">
         <v>45200</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A168" s="6">
         <v>45231</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A169" s="6">
         <v>45261</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A170" s="6">
         <v>45292</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A171" s="6">
         <v>45323</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A172" s="6">
         <v>45352</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A173" s="6">
         <v>45383</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A174" s="6">
         <v>45413</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A175" s="6">
         <v>45444</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A176" s="6">
         <v>45474</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A177" s="6">
         <v>45505</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A178" s="6">
         <v>45536</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A179" s="6">
         <v>45566</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A180" s="6">
         <v>45597</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A181" s="6">
         <v>45627</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A182" s="6">
         <v>45658</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A183" s="6">
         <v>45689</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A184" s="6">
         <v>45717</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A185" s="6">
         <v>45748</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A186" s="6">
         <v>45778</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A187" s="6">
         <v>45809</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A188" s="6">
         <v>45839</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A189" s="6">
         <v>45870</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A190" s="6">
         <v>45901</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A191" s="6">
         <v>45931</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A192" s="6">
         <v>45962</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A193" s="6">
         <v>45992</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A194" s="6">
         <v>46023</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A195" s="6">
         <v>46054</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A196" s="6">
         <v>46082</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A197" s="6">
         <v>46113</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A198" s="6">
         <v>46143</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A199" s="6">
         <v>46174</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A200" s="6">
         <v>46204</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A201" s="6">
         <v>46235</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A202" s="6">
         <v>46266</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A203" s="6">
         <v>46296</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A204" s="6">
         <v>46327</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A205" s="6">
         <v>46357</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A206" s="6">
         <v>46388</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A207" s="6">
         <v>46419</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A208" s="6">
         <v>46447</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A209" s="6">
         <v>46478</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A210" s="6">
         <v>46508</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A211" s="6">
         <v>46539</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A212" s="6">
         <v>46569</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A213" s="6">
         <v>46600</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A214" s="6">
         <v>46631</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A215" s="6">
         <v>46661</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A216" s="6">
         <v>46692</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A217" s="6">
         <v>46722</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A218" s="6">
         <v>46753</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A219" s="6">
         <v>46784</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A220" s="6">
         <v>46813</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A221" s="6">
         <v>46844</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A222" s="6">
         <v>46874</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A223" s="6">
         <v>46905</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A224" s="6">
         <v>46935</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A225" s="6">
         <v>46966</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A226" s="6">
         <v>46997</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A227" s="6">
         <v>47027</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A228" s="6">
         <v>47058</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A229" s="6">
         <v>47088</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A230" s="6">
         <v>47119</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A231" s="6">
         <v>47150</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A232" s="6">
         <v>47178</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A233" s="6">
         <v>47209</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A234" s="6">
         <v>47239</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A235" s="6">
         <v>47270</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A236" s="6">
         <v>47300</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A237" s="6">
         <v>47331</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A238" s="6">
         <v>47362</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A239" s="6">
         <v>47392</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A240" s="6">
         <v>47423</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A241" s="6">
         <v>47453</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A242" s="6">
         <v>47484</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A243" s="6">
         <v>47515</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A244" s="6">
         <v>47543</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A245" s="6">
         <v>47574</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A246" s="6">
         <v>47604</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A247" s="6">
         <v>47635</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A248" s="6">
         <v>47665</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A249" s="6">
         <v>47696</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A250" s="6">
         <v>47727</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A251" s="6">
         <v>47757</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A252" s="6">
         <v>47788</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A253" s="6">
         <v>47818</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A254" s="6">
         <v>47849</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A255" s="6">
         <v>47880</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A256" s="6">
         <v>47908</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A257" s="6">
         <v>47939</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A258" s="6">
         <v>47969</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A259" s="6">
         <v>48000</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A260" s="6">
         <v>48030</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A261" s="6">
         <v>48061</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A262" s="6">
         <v>48092</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A263" s="6">
         <v>48122</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A264" s="6">
         <v>48153</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A265" s="6">
         <v>48183</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A266" s="6">
         <v>48214</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A267" s="6">
         <v>48245</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A268" s="6">
         <v>48274</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A269" s="6">
         <v>48305</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A270" s="6">
         <v>48335</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A271" s="6">
         <v>48366</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A272" s="6">
         <v>48396</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A273" s="6">
         <v>48427</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A274" s="6">
         <v>48458</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A275" s="6">
         <v>48488</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A276" s="6">
         <v>48519</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A277" s="6">
         <v>48549</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A278" s="6">
         <v>48580</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A279" s="6">
         <v>48611</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A280" s="6">
         <v>48639</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A281" s="6">
         <v>48670</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A282" s="6">
         <v>48700</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A283" s="6">
         <v>48731</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A284" s="6">
         <v>48761</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A285" s="6">
         <v>48792</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A286" s="6">
         <v>48823</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A287" s="6">
         <v>48853</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A288" s="6">
         <v>48884</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A289" s="6">
         <v>48914</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A290" s="6">
         <v>48945</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A291" s="6">
         <v>48976</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A292" s="6">
         <v>49004</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A293" s="6">
         <v>49035</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A294" s="6">
         <v>49065</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A295" s="6">
         <v>49096</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A296" s="6">
         <v>49126</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A297" s="6">
         <v>49157</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A298" s="6">
         <v>49188</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A299" s="6">
         <v>49218</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A300" s="6">
         <v>49249</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A301" s="6">
         <v>49279</v>
       </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A302" s="6">
         <v>49310</v>
       </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A303" s="6">
         <v>49341</v>
       </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A304" s="6">
         <v>49369</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A305" s="6">
         <v>49400</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A306" s="6">
         <v>49430</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A307" s="6">
         <v>49461</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A308" s="6">
         <v>49491</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A309" s="6">
         <v>49522</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A310" s="6">
         <v>49553</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A311" s="6">
         <v>49583</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A312" s="6">
         <v>49614</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A313" s="6">
         <v>49644</v>
       </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A314" s="6">
         <v>49675</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A315" s="6">
         <v>49706</v>
       </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A316" s="6">
         <v>49735</v>
       </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A317" s="6">
         <v>49766</v>
       </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A318" s="6">
         <v>49796</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A319" s="6">
         <v>49827</v>
       </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A320" s="6">
         <v>49857</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A321" s="6">
         <v>49888</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A322" s="6">
         <v>49919</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A323" s="6">
         <v>49949</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A324" s="6">
         <v>49980</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A325" s="6">
         <v>50010</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A326" s="6">
         <v>50041</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A327" s="6">
         <v>50072</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A328" s="6">
         <v>50100</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A329" s="6">
         <v>50131</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A330" s="6">
         <v>50161</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A331" s="6">
         <v>50192</v>
       </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A332" s="6">
         <v>50222</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A333" s="6">
         <v>50253</v>
       </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A334" s="6">
         <v>50284</v>
       </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A335" s="6">
         <v>50314</v>
       </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A336" s="6">
         <v>50345</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A337" s="6">
         <v>50375</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A338" s="6">
         <v>50406</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A339" s="6">
         <v>50437</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A340" s="6">
         <v>50465</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A341" s="6">
         <v>50496</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A342" s="6">
         <v>50526</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A343" s="6">
         <v>50557</v>
       </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A344" s="6">
         <v>50587</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A345" s="6">
         <v>50618</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A346" s="6">
         <v>50649</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A347" s="6">
         <v>50679</v>
       </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A348" s="6">
         <v>50710</v>
       </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A349" s="6">
         <v>50740</v>
       </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A350" s="6">
         <v>50771</v>
       </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A351" s="6">
         <v>50802</v>
       </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A352" s="6">
         <v>50830</v>
       </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A353" s="6">
         <v>50861</v>
       </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A354" s="6">
         <v>50891</v>
       </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A355" s="6">
         <v>50922</v>
       </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A356" s="6">
         <v>50952</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A357" s="6">
         <v>50983</v>
       </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A358" s="6">
         <v>51014</v>
       </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A359" s="6">
         <v>51044</v>
       </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A360" s="6">
         <v>51075</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A361" s="6">
         <v>51105</v>
       </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A362" s="6">
         <v>51136</v>
       </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A363" s="6">
         <v>51167</v>
       </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A364" s="6">
         <v>51196</v>
       </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A365" s="6">
         <v>51227</v>
       </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A366" s="6">
         <v>51257</v>
       </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A367" s="6">
         <v>51288</v>
       </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A368" s="6">
         <v>51318</v>
       </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A369" s="6">
         <v>51349</v>
       </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A370" s="6">
         <v>51380</v>
       </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A371" s="6">
         <v>51410</v>
       </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A372" s="6">
         <v>51441</v>
       </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A373" s="6">
         <v>51471</v>
       </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A374" s="6">
         <v>51502</v>
       </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A375" s="6">
         <v>51533</v>
       </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A376" s="6">
         <v>51561</v>
       </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A377" s="6">
         <v>51592</v>
       </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A378" s="6">
         <v>51622</v>
       </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A379" s="6">
         <v>51653</v>
       </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A380" s="6">
         <v>51683</v>
       </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A381" s="6">
         <v>51714</v>
       </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A382" s="6">
         <v>51745</v>
       </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A383" s="6">
         <v>51775</v>
       </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A384" s="6">
         <v>51806</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A385" s="6">
         <v>51836</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A386" s="6">
         <v>51867</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A387" s="6">
         <v>51898</v>
       </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A388" s="6">
         <v>51926</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A389" s="6">
         <v>51957</v>
       </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A390" s="6">
         <v>51987</v>
       </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A391" s="6">
         <v>52018</v>
       </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A392" s="6">
         <v>52048</v>
       </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A393" s="6">
         <v>52079</v>
       </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A394" s="6">
         <v>52110</v>
       </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A395" s="6">
         <v>52140</v>
       </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A396" s="6">
         <v>52171</v>
       </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A397" s="6">
         <v>52201</v>
       </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A398" s="6"/>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A399" s="6"/>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A400" s="6"/>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.15">
@@ -3134,10 +4328,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:A401"/>
+  <dimension ref="A1:B401"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3145,1998 +4339,3189 @@
     <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B1" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="6">
         <v>40179</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>40210</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>40238</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>40269</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>40299</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>40330</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>40360</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>40391</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>40422</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>40452</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>40483</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>40513</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>40544</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>40575</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>40603</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>40634</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>40664</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>40695</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>40725</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>40756</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>40787</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>40817</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>40848</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>40878</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>40909</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>40940</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>40969</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>41000</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>41030</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>41061</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>41091</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="6">
         <v>41122</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="6">
         <v>41153</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="6">
         <v>41183</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="6">
         <v>41214</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="6">
         <v>41244</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="6">
         <v>41275</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="6">
         <v>41306</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="6">
         <v>41334</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="6">
         <v>41365</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="6">
         <v>41395</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="6">
         <v>41426</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="6">
         <v>41456</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="6">
         <v>41487</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="6">
         <v>41518</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="6">
         <v>41548</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="6">
         <v>41579</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="6">
         <v>41609</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="6">
         <v>41640</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="6">
         <v>41671</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="6">
         <v>41699</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="6">
         <v>41730</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="6">
         <v>41760</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="6">
         <v>41791</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="6">
         <v>41821</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="6">
         <v>41852</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="6">
         <v>41883</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="6">
         <v>41913</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="6">
         <v>41944</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="6">
         <v>41974</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="6">
         <v>42005</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="6">
         <v>42036</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="6">
         <v>42064</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="6">
         <v>42095</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="6">
         <v>42125</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="6">
         <v>42156</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="6">
         <v>42186</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="6">
         <v>42217</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="6">
         <v>42248</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="6">
         <v>42278</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="6">
         <v>42309</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="6">
         <v>42339</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="6">
         <v>42370</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="6">
         <v>42401</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="6">
         <v>42430</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="6">
         <v>42461</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="6">
         <v>42491</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="6">
         <v>42522</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="6">
         <v>42552</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="6">
         <v>42583</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="6">
         <v>42614</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="6">
         <v>42644</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="6">
         <v>42675</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="6">
         <v>42705</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" s="6">
         <v>42736</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="6">
         <v>42767</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="6">
         <v>42795</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="6">
         <v>42826</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="6">
         <v>42856</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="6">
         <v>42887</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="6">
         <v>42917</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="6">
         <v>42948</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="6">
         <v>42979</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" s="6">
         <v>43009</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" s="6">
         <v>43040</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="6">
         <v>43070</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="6">
         <v>43101</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="6">
         <v>43132</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" s="6">
         <v>43160</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="6">
         <v>43191</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="6">
         <v>43221</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="6">
         <v>43252</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="6">
         <v>43282</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="6">
         <v>43313</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="6">
         <v>43344</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="6">
         <v>43374</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="6">
         <v>43405</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="6">
         <v>43435</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="6">
         <v>43466</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="6">
         <v>43497</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="6">
         <v>43525</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="6">
         <v>43556</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" s="6">
         <v>43586</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" s="6">
         <v>43617</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" s="6">
         <v>43647</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" s="6">
         <v>43678</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" s="6">
         <v>43709</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" s="6">
         <v>43739</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" s="6">
         <v>43770</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" s="6">
         <v>43800</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" s="6">
         <v>43831</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" s="6">
         <v>43862</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" s="6">
         <v>43891</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" s="6">
         <v>43922</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" s="6">
         <v>43952</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" s="6">
         <v>43983</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" s="6">
         <v>44013</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" s="6">
         <v>44044</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" s="6">
         <v>44075</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" s="6">
         <v>44105</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" s="6">
         <v>44136</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" s="6">
         <v>44166</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" s="6">
         <v>44197</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" s="6">
         <v>44228</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" s="6">
         <v>44256</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" s="6">
         <v>44287</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" s="6">
         <v>44317</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" s="6">
         <v>44348</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" s="6">
         <v>44378</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" s="6">
         <v>44409</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" s="6">
         <v>44440</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" s="6">
         <v>44470</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" s="6">
         <v>44501</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" s="6">
         <v>44531</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" s="6">
         <v>44562</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" s="6">
         <v>44593</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" s="6">
         <v>44621</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" s="6">
         <v>44652</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" s="6">
         <v>44682</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151" s="6">
         <v>44713</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A152" s="6">
         <v>44743</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A153" s="6">
         <v>44774</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A154" s="6">
         <v>44805</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A155" s="6">
         <v>44835</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A156" s="6">
         <v>44866</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A157" s="6">
         <v>44896</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A158" s="6">
         <v>44927</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A159" s="6">
         <v>44958</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A160" s="6">
         <v>44986</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A161" s="6">
         <v>45017</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A162" s="6">
         <v>45047</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A163" s="6">
         <v>45078</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A164" s="6">
         <v>45108</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A165" s="6">
         <v>45139</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A166" s="6">
         <v>45170</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A167" s="6">
         <v>45200</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A168" s="6">
         <v>45231</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A169" s="6">
         <v>45261</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A170" s="6">
         <v>45292</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A171" s="6">
         <v>45323</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A172" s="6">
         <v>45352</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A173" s="6">
         <v>45383</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A174" s="6">
         <v>45413</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A175" s="6">
         <v>45444</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A176" s="6">
         <v>45474</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A177" s="6">
         <v>45505</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A178" s="6">
         <v>45536</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A179" s="6">
         <v>45566</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A180" s="6">
         <v>45597</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A181" s="6">
         <v>45627</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A182" s="6">
         <v>45658</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A183" s="6">
         <v>45689</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A184" s="6">
         <v>45717</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A185" s="6">
         <v>45748</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A186" s="6">
         <v>45778</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A187" s="6">
         <v>45809</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A188" s="6">
         <v>45839</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A189" s="6">
         <v>45870</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A190" s="6">
         <v>45901</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A191" s="6">
         <v>45931</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A192" s="6">
         <v>45962</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A193" s="6">
         <v>45992</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A194" s="6">
         <v>46023</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A195" s="6">
         <v>46054</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A196" s="6">
         <v>46082</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A197" s="6">
         <v>46113</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A198" s="6">
         <v>46143</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A199" s="6">
         <v>46174</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A200" s="6">
         <v>46204</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A201" s="6">
         <v>46235</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A202" s="6">
         <v>46266</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A203" s="6">
         <v>46296</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A204" s="6">
         <v>46327</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A205" s="6">
         <v>46357</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A206" s="6">
         <v>46388</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A207" s="6">
         <v>46419</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A208" s="6">
         <v>46447</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A209" s="6">
         <v>46478</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A210" s="6">
         <v>46508</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A211" s="6">
         <v>46539</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A212" s="6">
         <v>46569</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A213" s="6">
         <v>46600</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A214" s="6">
         <v>46631</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A215" s="6">
         <v>46661</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A216" s="6">
         <v>46692</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A217" s="6">
         <v>46722</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A218" s="6">
         <v>46753</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A219" s="6">
         <v>46784</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A220" s="6">
         <v>46813</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A221" s="6">
         <v>46844</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A222" s="6">
         <v>46874</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A223" s="6">
         <v>46905</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A224" s="6">
         <v>46935</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A225" s="6">
         <v>46966</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A226" s="6">
         <v>46997</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A227" s="6">
         <v>47027</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A228" s="6">
         <v>47058</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A229" s="6">
         <v>47088</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A230" s="6">
         <v>47119</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A231" s="6">
         <v>47150</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A232" s="6">
         <v>47178</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A233" s="6">
         <v>47209</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A234" s="6">
         <v>47239</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A235" s="6">
         <v>47270</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A236" s="6">
         <v>47300</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A237" s="6">
         <v>47331</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A238" s="6">
         <v>47362</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A239" s="6">
         <v>47392</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A240" s="6">
         <v>47423</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A241" s="6">
         <v>47453</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A242" s="6">
         <v>47484</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A243" s="6">
         <v>47515</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A244" s="6">
         <v>47543</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A245" s="6">
         <v>47574</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A246" s="6">
         <v>47604</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A247" s="6">
         <v>47635</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A248" s="6">
         <v>47665</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A249" s="6">
         <v>47696</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A250" s="6">
         <v>47727</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A251" s="6">
         <v>47757</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A252" s="6">
         <v>47788</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A253" s="6">
         <v>47818</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A254" s="6">
         <v>47849</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A255" s="6">
         <v>47880</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A256" s="6">
         <v>47908</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A257" s="6">
         <v>47939</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A258" s="6">
         <v>47969</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A259" s="6">
         <v>48000</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A260" s="6">
         <v>48030</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A261" s="6">
         <v>48061</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A262" s="6">
         <v>48092</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A263" s="6">
         <v>48122</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A264" s="6">
         <v>48153</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A265" s="6">
         <v>48183</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A266" s="6">
         <v>48214</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A267" s="6">
         <v>48245</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A268" s="6">
         <v>48274</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A269" s="6">
         <v>48305</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A270" s="6">
         <v>48335</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A271" s="6">
         <v>48366</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A272" s="6">
         <v>48396</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A273" s="6">
         <v>48427</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A274" s="6">
         <v>48458</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A275" s="6">
         <v>48488</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A276" s="6">
         <v>48519</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A277" s="6">
         <v>48549</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A278" s="6">
         <v>48580</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A279" s="6">
         <v>48611</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A280" s="6">
         <v>48639</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A281" s="6">
         <v>48670</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A282" s="6">
         <v>48700</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A283" s="6">
         <v>48731</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A284" s="6">
         <v>48761</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A285" s="6">
         <v>48792</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A286" s="6">
         <v>48823</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A287" s="6">
         <v>48853</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A288" s="6">
         <v>48884</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A289" s="6">
         <v>48914</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A290" s="6">
         <v>48945</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A291" s="6">
         <v>48976</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A292" s="6">
         <v>49004</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A293" s="6">
         <v>49035</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A294" s="6">
         <v>49065</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A295" s="6">
         <v>49096</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A296" s="6">
         <v>49126</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A297" s="6">
         <v>49157</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A298" s="6">
         <v>49188</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A299" s="6">
         <v>49218</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A300" s="6">
         <v>49249</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A301" s="6">
         <v>49279</v>
       </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A302" s="6">
         <v>49310</v>
       </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A303" s="6">
         <v>49341</v>
       </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A304" s="6">
         <v>49369</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A305" s="6">
         <v>49400</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A306" s="6">
         <v>49430</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A307" s="6">
         <v>49461</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A308" s="6">
         <v>49491</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A309" s="6">
         <v>49522</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A310" s="6">
         <v>49553</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A311" s="6">
         <v>49583</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A312" s="6">
         <v>49614</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A313" s="6">
         <v>49644</v>
       </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A314" s="6">
         <v>49675</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A315" s="6">
         <v>49706</v>
       </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A316" s="6">
         <v>49735</v>
       </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A317" s="6">
         <v>49766</v>
       </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A318" s="6">
         <v>49796</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A319" s="6">
         <v>49827</v>
       </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A320" s="6">
         <v>49857</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A321" s="6">
         <v>49888</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A322" s="6">
         <v>49919</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A323" s="6">
         <v>49949</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A324" s="6">
         <v>49980</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A325" s="6">
         <v>50010</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A326" s="6">
         <v>50041</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A327" s="6">
         <v>50072</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A328" s="6">
         <v>50100</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A329" s="6">
         <v>50131</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A330" s="6">
         <v>50161</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A331" s="6">
         <v>50192</v>
       </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A332" s="6">
         <v>50222</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A333" s="6">
         <v>50253</v>
       </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A334" s="6">
         <v>50284</v>
       </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A335" s="6">
         <v>50314</v>
       </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A336" s="6">
         <v>50345</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A337" s="6">
         <v>50375</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A338" s="6">
         <v>50406</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A339" s="6">
         <v>50437</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A340" s="6">
         <v>50465</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A341" s="6">
         <v>50496</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A342" s="6">
         <v>50526</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A343" s="6">
         <v>50557</v>
       </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A344" s="6">
         <v>50587</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A345" s="6">
         <v>50618</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A346" s="6">
         <v>50649</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A347" s="6">
         <v>50679</v>
       </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A348" s="6">
         <v>50710</v>
       </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A349" s="6">
         <v>50740</v>
       </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A350" s="6">
         <v>50771</v>
       </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A351" s="6">
         <v>50802</v>
       </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A352" s="6">
         <v>50830</v>
       </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A353" s="6">
         <v>50861</v>
       </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A354" s="6">
         <v>50891</v>
       </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A355" s="6">
         <v>50922</v>
       </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A356" s="6">
         <v>50952</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A357" s="6">
         <v>50983</v>
       </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A358" s="6">
         <v>51014</v>
       </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A359" s="6">
         <v>51044</v>
       </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A360" s="6">
         <v>51075</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A361" s="6">
         <v>51105</v>
       </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A362" s="6">
         <v>51136</v>
       </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A363" s="6">
         <v>51167</v>
       </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A364" s="6">
         <v>51196</v>
       </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A365" s="6">
         <v>51227</v>
       </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A366" s="6">
         <v>51257</v>
       </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A367" s="6">
         <v>51288</v>
       </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A368" s="6">
         <v>51318</v>
       </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A369" s="6">
         <v>51349</v>
       </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A370" s="6">
         <v>51380</v>
       </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A371" s="6">
         <v>51410</v>
       </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A372" s="6">
         <v>51441</v>
       </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A373" s="6">
         <v>51471</v>
       </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A374" s="6">
         <v>51502</v>
       </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A375" s="6">
         <v>51533</v>
       </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A376" s="6">
         <v>51561</v>
       </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A377" s="6">
         <v>51592</v>
       </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A378" s="6">
         <v>51622</v>
       </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A379" s="6">
         <v>51653</v>
       </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A380" s="6">
         <v>51683</v>
       </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A381" s="6">
         <v>51714</v>
       </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A382" s="6">
         <v>51745</v>
       </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A383" s="6">
         <v>51775</v>
       </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A384" s="6">
         <v>51806</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A385" s="6">
         <v>51836</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A386" s="6">
         <v>51867</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A387" s="6">
         <v>51898</v>
       </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A388" s="6">
         <v>51926</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A389" s="6">
         <v>51957</v>
       </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A390" s="6">
         <v>51987</v>
       </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A391" s="6">
         <v>52018</v>
       </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A392" s="6">
         <v>52048</v>
       </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A393" s="6">
         <v>52079</v>
       </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A394" s="6">
         <v>52110</v>
       </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A395" s="6">
         <v>52140</v>
       </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A396" s="6">
         <v>52171</v>
       </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A397" s="6">
         <v>52201</v>
       </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A398" s="6"/>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A399" s="6"/>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A400" s="6"/>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.15">

--- a/data/segmentacion_movilidad.xlsx
+++ b/data/segmentacion_movilidad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10329"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebatoec/projects/app-analisis-siniestralidad/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB4F2FD-55BB-4C4A-8400-B3856CA9E4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F68B4E-89A8-2B4D-B451-D6EED4E9126E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29140" windowHeight="16160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29140" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aperturas_Siniestros" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="22">
   <si>
     <t>codigo_op</t>
   </si>
@@ -568,8 +568,8 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -786,133 +786,90 @@
   <sheetPr codeName="Hoja2">
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
+      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
+      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
+      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G17" s="1"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4330,8 +4287,8 @@
   </sheetPr>
   <dimension ref="A1:B401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>

--- a/data/segmentacion_movilidad.xlsx
+++ b/data/segmentacion_movilidad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebatoec/projects/app-analisis-siniestralidad/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8E3C8F-A24E-984E-95A6-6C07AC2CD060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF20DCCA-6F2F-774B-BE47-C22314B72AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29140" windowHeight="16160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29140" windowHeight="16160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aperturas_Siniestros" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="26">
   <si>
     <t>codigo_op</t>
   </si>
@@ -1000,7 +1000,7 @@
   </sheetPr>
   <dimension ref="A1:G397"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -11008,39 +11008,32 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/segmentacion_movilidad.xlsx
+++ b/data/segmentacion_movilidad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10817"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebatoec/projects/app-analisis-siniestralidad/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3148E4EB-EB51-3C40-B7D7-AC643AF3B76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E2177B-7D01-9E4B-863D-C96989EB4455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29140" windowHeight="16160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29140" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aperturas_Siniestros" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="36">
   <si>
     <t>codigo_op</t>
   </si>
@@ -143,13 +143,22 @@
   <si>
     <t>cuadrar_prima_retenida_devengada</t>
   </si>
+  <si>
+    <t>tipo_indexacion_severidad</t>
+  </si>
+  <si>
+    <t>medida_indexacion_severidad</t>
+  </si>
+  <si>
+    <t>Ninguna</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -616,8 +625,8 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -628,6 +637,8 @@
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -649,6 +660,12 @@
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="G1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="str">
@@ -670,6 +687,12 @@
       <c r="F2" t="s">
         <v>19</v>
       </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="str">
@@ -691,6 +714,12 @@
       <c r="F3" t="s">
         <v>19</v>
       </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="str">
@@ -712,6 +741,12 @@
       <c r="F4" t="s">
         <v>19</v>
       </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="str">
@@ -733,6 +768,12 @@
       <c r="F5" t="s">
         <v>19</v>
       </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="str">
@@ -754,6 +795,12 @@
       <c r="F6" t="s">
         <v>19</v>
       </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="str">
@@ -775,6 +822,12 @@
       <c r="F7" t="s">
         <v>19</v>
       </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="str">
@@ -796,6 +849,12 @@
       <c r="F8" t="s">
         <v>19</v>
       </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="str">
@@ -817,12 +876,21 @@
       <c r="F9" t="s">
         <v>19</v>
       </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
       <c r="J9" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{08DED6C2-FC42-442A-8CC2-E6D49529C488}">
       <formula1>"Mensual,Trimestral,Semestral,Anual"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G9" xr:uid="{598959B9-E05C-4041-AEAA-B378375AAD56}">
+      <formula1>"Ninguna,Por fecha de ocurrencia,Por fecha de movimiento"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17855,7 +17923,7 @@
   </sheetPr>
   <dimension ref="A1:E401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>

--- a/data/segmentacion_movilidad.xlsx
+++ b/data/segmentacion_movilidad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10824"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebatoec/projects/app-analisis-siniestralidad/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E2177B-7D01-9E4B-863D-C96989EB4455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982A49A1-7BAA-3B45-BCA7-9A8C52466FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29140" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29140" windowHeight="16160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aperturas_Siniestros" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="35">
   <si>
     <t>codigo_op</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>SUBR</t>
-  </si>
-  <si>
-    <t>apertura_reservas</t>
   </si>
   <si>
     <t>periodicidad_ocurrencia</t>
@@ -158,7 +155,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -229,7 +226,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -240,7 +237,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
@@ -623,273 +620,237 @@
   <sheetPr codeName="Hoja1">
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" t="str">
-        <f>+B2&amp;"_"&amp;C2&amp;"_"&amp;D2&amp;"_"&amp;E2&amp;""</f>
-        <v>01_040_MOTOS RESTO_MOTOS RESTO</v>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" t="str">
-        <f t="shared" ref="A3:A9" si="0">+B3&amp;"_"&amp;C3&amp;"_"&amp;D3&amp;"_"&amp;E3&amp;""</f>
-        <v>01_040_TOTALES_TOTALES</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>01_040_RC_RC PJ</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>01_040_PARCIALES_PARCIALES_RESTO</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>01_040_MOTOS SUFI_MOTOS SUFI</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>01_040_TOTALES_SALV</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" t="str">
-        <f t="shared" si="0"/>
-        <v>01_040_RC_RC NO PJ</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" t="str">
-        <f t="shared" si="0"/>
-        <v>01_040_PARCIALES_SUBR</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="I9" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{08DED6C2-FC42-442A-8CC2-E6D49529C488}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E9" xr:uid="{08DED6C2-FC42-442A-8CC2-E6D49529C488}">
       <formula1>"Mensual,Trimestral,Semestral,Anual"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G9" xr:uid="{598959B9-E05C-4041-AEAA-B378375AAD56}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{598959B9-E05C-4041-AEAA-B378375AAD56}">
       <formula1>"Ninguna,Por fecha de ocurrencia,Por fecha de movimiento"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1112,19 +1073,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -11037,53 +10998,45 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>17</v>
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="str">
-        <f>+B2&amp;"_"&amp;C2&amp;"_"&amp;D2&amp;"_"&amp;E2</f>
-        <v>01_040_PARCIALES_PARCIALES_RESTO</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11152,19 +11105,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -17923,8 +17876,8 @@
   </sheetPr>
   <dimension ref="A1:E401"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -17938,19 +17891,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
